--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level/act11d0_04.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level/act11d0_04.xlsx
@@ -66,7 +66,7 @@
     <t>[PopupDialog(dialogHead="$avatar_folnic")] わかった……表情……？そんなにひどい？……ごめんね。</t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_folnic")] I didn't expect there to be this many rioters, and they've taken over the town. I promised Amiya that I wouldn't get you involved in any intense battles, but…
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_folnic")] I didn't expect there to be this many rioters, and they've taken over the town. I promised Amiya that I wouldn't get you involved in any intense battles, but...
 </t>
   </si>
   <si>
@@ -74,15 +74,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_folnic")] …Huh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_lisa")] Because, the face you're making right now… is making me a bit uneasy.
-</t>
-  </si>
-  <si>
-    <t>[PopupDialog(dialogHead="$avatar_folnic")] Fine… What face am I making though…? Is it really that scary…? Sorry.</t>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_folnic")] ...Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_lisa")] Because, the face you're making right now... is making me a bit uneasy.
+</t>
+  </si>
+  <si>
+    <t>[PopupDialog(dialogHead="$avatar_folnic")] Fine... What face am I making though...? Is it really that scary...? Sorry.</t>
   </si>
   <si>
     <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_folnic")] 폭도들이 상상했던 것 보다 훨씬 더 많이 마을을 점령했어. 네가 이런 싸움엔 말려들지 않게 하겠다고 아미야랑 약속했었는데……
